--- a/public/sample/deliverydate_bulkimport.xlsx
+++ b/public/sample/deliverydate_bulkimport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13A2241-E160-468C-8AC2-FB57F9790212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0F198A-6A7E-413B-B1A3-B5C013F2D359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85FD23C3-00A6-4522-A24E-8D9CC9FD1E86}"/>
   </bookViews>
@@ -35,12 +35,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Lr No</t>
   </si>
   <si>
     <t>Delivery Date</t>
+  </si>
+  <si>
+    <t>Pod Image</t>
+  </si>
+  <si>
+    <t>1100747.jpg</t>
+  </si>
+  <si>
+    <t>1100746.jpg</t>
   </si>
 </sst>
 </file>
@@ -431,40 +440,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DE1D91-956C-4240-920B-E8BD4D47F8B9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1100746</v>
       </c>
       <c r="B2" s="2">
         <v>43850</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1100747</v>
       </c>
       <c r="B3" s="2">
         <v>43855</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
